--- a/Test_OPEN7_1/TouchGFX/assets/texts/texts.xlsx
+++ b/Test_OPEN7_1/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t xml:space="preserve">To jest próba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To jest tekst.................</t>
   </si>
 </sst>
 </file>
@@ -1624,13 +1633,30 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Test_OPEN7_1/TouchGFX/assets/texts/texts.xlsx
+++ b/Test_OPEN7_1/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">To jest tekst.................</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacek to pierdoła</t>
   </si>
 </sst>
 </file>
@@ -1659,6 +1665,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
